--- a/Code/Results/Cases/Case_6_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_3/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.55180945446734</v>
+        <v>17.66299311274711</v>
       </c>
       <c r="C2">
-        <v>11.96564380794896</v>
+        <v>6.377277791956495</v>
       </c>
       <c r="D2">
-        <v>2.265366213836971</v>
+        <v>2.233061271327106</v>
       </c>
       <c r="E2">
-        <v>5.676147080448398</v>
+        <v>5.869436645288932</v>
       </c>
       <c r="F2">
-        <v>43.69846321120171</v>
+        <v>42.3755645054481</v>
       </c>
       <c r="G2">
-        <v>2.155660944211108</v>
+        <v>2.184915122733178</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.960536134054122</v>
+        <v>6.28712556050673</v>
       </c>
       <c r="K2">
-        <v>19.04236113866315</v>
+        <v>14.1463905063472</v>
       </c>
       <c r="L2">
-        <v>6.613560465990109</v>
+        <v>6.345815287848398</v>
       </c>
       <c r="M2">
-        <v>14.48393847896566</v>
+        <v>12.22512325408961</v>
       </c>
       <c r="N2">
-        <v>17.07139395451124</v>
+        <v>19.30935002818139</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.36040284872435</v>
+        <v>16.92588326272655</v>
       </c>
       <c r="C3">
-        <v>11.10146991143587</v>
+        <v>5.939807838712426</v>
       </c>
       <c r="D3">
-        <v>2.273267430447418</v>
+        <v>2.257055218964969</v>
       </c>
       <c r="E3">
-        <v>5.662387810810075</v>
+        <v>5.885098299860918</v>
       </c>
       <c r="F3">
-        <v>42.73085112911678</v>
+        <v>41.77944840661777</v>
       </c>
       <c r="G3">
-        <v>2.166629562872677</v>
+        <v>2.193393832129556</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.997306691453521</v>
+        <v>6.323722609794578</v>
       </c>
       <c r="K3">
-        <v>18.08491367805467</v>
+        <v>13.59039347919537</v>
       </c>
       <c r="L3">
-        <v>6.568601460464906</v>
+        <v>6.318188514503907</v>
       </c>
       <c r="M3">
-        <v>14.06868599680702</v>
+        <v>11.99992868055997</v>
       </c>
       <c r="N3">
-        <v>17.23629944625092</v>
+        <v>19.41601046479516</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.6159223858281</v>
+        <v>16.46917226006255</v>
       </c>
       <c r="C4">
-        <v>10.54462116130216</v>
+        <v>5.657279829745489</v>
       </c>
       <c r="D4">
-        <v>2.280557695307935</v>
+        <v>2.271384360633954</v>
       </c>
       <c r="E4">
-        <v>5.654469691092144</v>
+        <v>5.89601295405476</v>
       </c>
       <c r="F4">
-        <v>42.16137213064016</v>
+        <v>41.43371464565433</v>
       </c>
       <c r="G4">
-        <v>2.173526545016129</v>
+        <v>2.198746443886699</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.020438773807848</v>
+        <v>6.347019542155988</v>
       </c>
       <c r="K4">
-        <v>17.48717054401193</v>
+        <v>13.24728773431625</v>
       </c>
       <c r="L4">
-        <v>6.544030985060006</v>
+        <v>6.303793118929802</v>
       </c>
       <c r="M4">
-        <v>13.81792393842468</v>
+        <v>11.86649293568244</v>
       </c>
       <c r="N4">
-        <v>17.34232072039741</v>
+        <v>19.48628401222451</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.30961843400091</v>
+        <v>16.28227816960705</v>
       </c>
       <c r="C5">
-        <v>10.3110072300395</v>
+        <v>5.538608579889893</v>
       </c>
       <c r="D5">
-        <v>2.284085529988479</v>
+        <v>2.277131943233764</v>
       </c>
       <c r="E5">
-        <v>5.651364545872438</v>
+        <v>5.900784026762324</v>
       </c>
       <c r="F5">
-        <v>41.93546782640345</v>
+        <v>41.29787169922432</v>
       </c>
       <c r="G5">
-        <v>2.176380369775627</v>
+        <v>2.200965932317544</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.030011156930719</v>
+        <v>6.356724625037109</v>
       </c>
       <c r="K5">
-        <v>17.24137378396077</v>
+        <v>13.10722580778138</v>
       </c>
       <c r="L5">
-        <v>6.534767163517024</v>
+        <v>6.298563173906814</v>
       </c>
       <c r="M5">
-        <v>13.71688079748636</v>
+        <v>11.81336417361754</v>
       </c>
       <c r="N5">
-        <v>17.38669765039777</v>
+        <v>19.51609655238171</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.25859156562118</v>
+        <v>16.251205489729</v>
       </c>
       <c r="C6">
-        <v>10.27180896702463</v>
+        <v>5.518688507278552</v>
       </c>
       <c r="D6">
-        <v>2.284703407845067</v>
+        <v>2.278081062047993</v>
       </c>
       <c r="E6">
-        <v>5.650855957134623</v>
+        <v>5.901595694132329</v>
       </c>
       <c r="F6">
-        <v>41.89832781963358</v>
+        <v>41.27561815309802</v>
       </c>
       <c r="G6">
-        <v>2.176856925877789</v>
+        <v>2.201336826084742</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.031609632233641</v>
+        <v>6.358349017759794</v>
       </c>
       <c r="K6">
-        <v>17.20043481952365</v>
+        <v>13.0839598515222</v>
       </c>
       <c r="L6">
-        <v>6.533273724956707</v>
+        <v>6.297732897966893</v>
       </c>
       <c r="M6">
-        <v>13.70017443931693</v>
+        <v>11.80461841690971</v>
       </c>
       <c r="N6">
-        <v>17.39413650449283</v>
+        <v>19.52111714236412</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.61180280111266</v>
+        <v>16.46665454049934</v>
       </c>
       <c r="C7">
-        <v>10.54149778207857</v>
+        <v>5.655693765049104</v>
       </c>
       <c r="D7">
-        <v>2.280603088688089</v>
+        <v>2.271462233242356</v>
       </c>
       <c r="E7">
-        <v>5.654427336603121</v>
+        <v>5.896075993612627</v>
       </c>
       <c r="F7">
-        <v>42.15830059672373</v>
+        <v>41.43186226400725</v>
       </c>
       <c r="G7">
-        <v>2.173564854458312</v>
+        <v>2.198776220019814</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.02056727157385</v>
+        <v>6.347149567666696</v>
       </c>
       <c r="K7">
-        <v>17.48386420013105</v>
+        <v>13.24539953109495</v>
       </c>
       <c r="L7">
-        <v>6.543903036663002</v>
+        <v>6.303720022243738</v>
       </c>
       <c r="M7">
-        <v>13.81655648201646</v>
+        <v>11.8657713312295</v>
       </c>
       <c r="N7">
-        <v>17.34291448878006</v>
+        <v>19.48668134949079</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.14387956025827</v>
+        <v>17.4098369290091</v>
       </c>
       <c r="C8">
-        <v>11.67306308748494</v>
+        <v>6.229302963447423</v>
       </c>
       <c r="D8">
-        <v>2.267549028211153</v>
+        <v>2.241424140301986</v>
       </c>
       <c r="E8">
-        <v>5.671285429375985</v>
+        <v>5.874565309802147</v>
       </c>
       <c r="F8">
-        <v>43.35969666832848</v>
+        <v>42.16578277174631</v>
       </c>
       <c r="G8">
-        <v>2.159410798195599</v>
+        <v>2.187809000852423</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.973103438335458</v>
+        <v>6.299574992118032</v>
       </c>
       <c r="K8">
-        <v>18.71442511355566</v>
+        <v>13.95514695884138</v>
       </c>
       <c r="L8">
-        <v>6.59742020378994</v>
+        <v>6.335751124913235</v>
       </c>
       <c r="M8">
-        <v>14.33993683375686</v>
+        <v>12.14649206161819</v>
       </c>
       <c r="N8">
-        <v>17.12724638580194</v>
+        <v>19.34511650892502</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.03448814447231</v>
+        <v>19.21716431130904</v>
       </c>
       <c r="C9">
-        <v>13.68865864913133</v>
+        <v>7.245610620743697</v>
       </c>
       <c r="D9">
-        <v>2.264083083720847</v>
+        <v>2.178844958098295</v>
       </c>
       <c r="E9">
-        <v>5.709145132842427</v>
+        <v>5.842842230150507</v>
       </c>
       <c r="F9">
-        <v>45.91301495898198</v>
+        <v>43.76822890184865</v>
       </c>
       <c r="G9">
-        <v>2.132820060287597</v>
+        <v>2.167399044228428</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.884117015263672</v>
+        <v>6.212662713449615</v>
       </c>
       <c r="K9">
-        <v>21.04039403859521</v>
+        <v>15.32614193967956</v>
       </c>
       <c r="L9">
-        <v>6.727099239833646</v>
+        <v>6.419350642227753</v>
       </c>
       <c r="M9">
-        <v>15.39629110621249</v>
+        <v>12.73394673083556</v>
       </c>
       <c r="N9">
-        <v>16.74357434843492</v>
+        <v>19.1068218137744</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.07921598914917</v>
+        <v>20.50897283210192</v>
       </c>
       <c r="C10">
-        <v>15.05307344380962</v>
+        <v>7.929021933490789</v>
       </c>
       <c r="D10">
-        <v>2.456997677884588</v>
+        <v>2.129908483194729</v>
       </c>
       <c r="E10">
-        <v>5.74083061739751</v>
+        <v>5.826151891027325</v>
       </c>
       <c r="F10">
-        <v>47.91334767076804</v>
+        <v>45.04829350190135</v>
       </c>
       <c r="G10">
-        <v>2.11380629363661</v>
+        <v>2.152971763318944</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.820754905579424</v>
+        <v>6.152440310272518</v>
       </c>
       <c r="K10">
-        <v>22.68842296346442</v>
+        <v>16.31289273102385</v>
       </c>
       <c r="L10">
-        <v>6.838407323055816</v>
+        <v>6.494017336031963</v>
       </c>
       <c r="M10">
-        <v>16.18716195885908</v>
+        <v>13.18631974838105</v>
       </c>
       <c r="N10">
-        <v>16.48797388934047</v>
+        <v>18.95780793406699</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.99162496441841</v>
+        <v>21.08735567721481</v>
       </c>
       <c r="C11">
-        <v>15.65042179396481</v>
+        <v>8.226891971927129</v>
       </c>
       <c r="D11">
-        <v>2.551560758027977</v>
+        <v>2.106826583423496</v>
       </c>
       <c r="E11">
-        <v>5.756333757933898</v>
+        <v>5.820055533137233</v>
       </c>
       <c r="F11">
-        <v>48.85186178590428</v>
+        <v>45.65371898117188</v>
       </c>
       <c r="G11">
-        <v>2.105222224434939</v>
+        <v>2.146507198071711</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.792248745004271</v>
+        <v>6.125770912836064</v>
       </c>
       <c r="K11">
-        <v>23.42444586396428</v>
+        <v>16.75619067154943</v>
       </c>
       <c r="L11">
-        <v>6.892755108906343</v>
+        <v>6.530987868583027</v>
       </c>
       <c r="M11">
-        <v>16.54974756087319</v>
+        <v>13.39630873721683</v>
       </c>
       <c r="N11">
-        <v>16.37806121636102</v>
+        <v>18.89620829330849</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.33461151730976</v>
+        <v>21.3049633863048</v>
       </c>
       <c r="C12">
-        <v>15.87344871320646</v>
+        <v>8.337879712352013</v>
       </c>
       <c r="D12">
-        <v>2.587294772197382</v>
+        <v>2.097951844561126</v>
       </c>
       <c r="E12">
-        <v>5.762385393399322</v>
+        <v>5.817967727085348</v>
       </c>
       <c r="F12">
-        <v>49.21153842603299</v>
+        <v>45.88637579023471</v>
       </c>
       <c r="G12">
-        <v>2.101976544363519</v>
+        <v>2.14407115995129</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.781488803839515</v>
+        <v>6.115770881200542</v>
       </c>
       <c r="K12">
-        <v>23.701221869649</v>
+        <v>16.9231913844611</v>
       </c>
       <c r="L12">
-        <v>6.913890303316819</v>
+        <v>6.54543034658296</v>
       </c>
       <c r="M12">
-        <v>16.68744620704038</v>
+        <v>13.47640927942845</v>
       </c>
       <c r="N12">
-        <v>16.33742299491393</v>
+        <v>18.87382251978228</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.26085426393314</v>
+        <v>21.25816146461305</v>
       </c>
       <c r="C13">
-        <v>15.82555404387831</v>
+        <v>8.31405592279066</v>
       </c>
       <c r="D13">
-        <v>2.579601236276223</v>
+        <v>2.099869416888843</v>
       </c>
       <c r="E13">
-        <v>5.761073592829975</v>
+        <v>5.81840745997374</v>
       </c>
       <c r="F13">
-        <v>49.13388175367228</v>
+        <v>45.83611668603811</v>
       </c>
       <c r="G13">
-        <v>2.102675418140154</v>
+        <v>2.144595310128838</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.783804792700178</v>
+        <v>6.117920248925913</v>
       </c>
       <c r="K13">
-        <v>23.64169848156209</v>
+        <v>16.88726408879986</v>
       </c>
       <c r="L13">
-        <v>6.909313421519639</v>
+        <v>6.542300043788124</v>
       </c>
       <c r="M13">
-        <v>16.65777265082237</v>
+        <v>13.45913258232345</v>
       </c>
       <c r="N13">
-        <v>16.34613020962284</v>
+        <v>18.87860098862408</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.01989283521466</v>
+        <v>21.10528706445854</v>
       </c>
       <c r="C14">
-        <v>15.66883290113647</v>
+        <v>8.236058880017396</v>
       </c>
       <c r="D14">
-        <v>2.554501794222176</v>
+        <v>2.106099239232835</v>
       </c>
       <c r="E14">
-        <v>5.756827851488411</v>
+        <v>5.819879309696956</v>
       </c>
       <c r="F14">
-        <v>48.88136556801877</v>
+        <v>45.67279129042544</v>
       </c>
       <c r="G14">
-        <v>2.104955129418014</v>
+        <v>2.146306557586062</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.791362889281895</v>
+        <v>6.124946250209582</v>
       </c>
       <c r="K14">
-        <v>23.44725492622118</v>
+        <v>16.76994756666445</v>
       </c>
       <c r="L14">
-        <v>6.89448266445854</v>
+        <v>6.53216712816753</v>
       </c>
       <c r="M14">
-        <v>16.56106815698091</v>
+        <v>13.40288709169327</v>
       </c>
       <c r="N14">
-        <v>16.3746977429832</v>
+        <v>18.89434743798557</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.87197043787891</v>
+        <v>21.01146119207568</v>
       </c>
       <c r="C15">
-        <v>15.57242875405837</v>
+        <v>8.188049784920718</v>
       </c>
       <c r="D15">
-        <v>2.53911957045502</v>
+        <v>2.10989721355146</v>
       </c>
       <c r="E15">
-        <v>5.754251557125547</v>
+        <v>5.820809784818583</v>
       </c>
       <c r="F15">
-        <v>48.72725594665999</v>
+        <v>45.57319429644806</v>
       </c>
       <c r="G15">
-        <v>2.106352016765314</v>
+        <v>2.147356233600106</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.795996618224367</v>
+        <v>6.129262618623089</v>
       </c>
       <c r="K15">
-        <v>23.3279017135949</v>
+        <v>16.69797347786181</v>
       </c>
       <c r="L15">
-        <v>6.885471323133125</v>
+        <v>6.526018379878412</v>
       </c>
       <c r="M15">
-        <v>16.50188547426889</v>
+        <v>13.36851038404413</v>
       </c>
       <c r="N15">
-        <v>16.39232647674586</v>
+        <v>18.90411670370495</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.01923177647792</v>
+        <v>20.47098001886355</v>
       </c>
       <c r="C16">
-        <v>15.01358067249959</v>
+        <v>7.909298721032421</v>
       </c>
       <c r="D16">
-        <v>2.450804271830142</v>
+        <v>2.131399083758796</v>
       </c>
       <c r="E16">
-        <v>5.739841367245219</v>
+        <v>5.826580875318371</v>
       </c>
       <c r="F16">
-        <v>47.85260184696454</v>
+        <v>45.00919846483743</v>
       </c>
       <c r="G16">
-        <v>2.114368227668768</v>
+        <v>2.153396035256353</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.822623332094364</v>
+        <v>6.154197383049471</v>
       </c>
       <c r="K16">
-        <v>22.6400480035753</v>
+        <v>16.28380382138068</v>
       </c>
       <c r="L16">
-        <v>6.834932016650619</v>
+        <v>6.491662564691156</v>
       </c>
       <c r="M16">
-        <v>16.16352143989063</v>
+        <v>13.17267901786968</v>
       </c>
       <c r="N16">
-        <v>16.49529054543586</v>
+        <v>18.96196235063687</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>27.49155849329681</v>
+        <v>20.13697083364114</v>
       </c>
       <c r="C17">
-        <v>14.66489074868924</v>
+        <v>7.735002861801468</v>
       </c>
       <c r="D17">
-        <v>2.396434433229519</v>
+        <v>2.144368622765416</v>
       </c>
       <c r="E17">
-        <v>5.731296380230604</v>
+        <v>5.830508268572699</v>
       </c>
       <c r="F17">
-        <v>47.32345039041365</v>
+        <v>44.66917259373776</v>
       </c>
       <c r="G17">
-        <v>2.119299638963988</v>
+        <v>2.157124971348091</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.839031878036725</v>
+        <v>6.169676358599689</v>
       </c>
       <c r="K17">
-        <v>22.21457149179095</v>
+        <v>16.02824131893622</v>
       </c>
       <c r="L17">
-        <v>6.804892933823552</v>
+        <v>6.471363160193127</v>
       </c>
       <c r="M17">
-        <v>15.95665299418337</v>
+        <v>13.05360162921884</v>
       </c>
       <c r="N17">
-        <v>16.56013015931003</v>
+        <v>18.99906805835626</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>27.18637837466402</v>
+        <v>19.94398801105017</v>
       </c>
       <c r="C18">
-        <v>14.46212563031902</v>
+        <v>7.633523190555458</v>
       </c>
       <c r="D18">
-        <v>2.365075929108504</v>
+        <v>2.151752185183145</v>
       </c>
       <c r="E18">
-        <v>5.726482409208454</v>
+        <v>5.832907659611431</v>
       </c>
       <c r="F18">
-        <v>47.02177036841272</v>
+        <v>44.47576971251909</v>
       </c>
       <c r="G18">
-        <v>2.122142509256269</v>
+        <v>2.159279169466583</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.848500253104254</v>
+        <v>6.178648138587888</v>
       </c>
       <c r="K18">
-        <v>21.96855665183224</v>
+        <v>15.88072556002962</v>
       </c>
       <c r="L18">
-        <v>6.787963368000933</v>
+        <v>6.459969598193725</v>
       </c>
       <c r="M18">
-        <v>15.83793185809649</v>
+        <v>12.98550799369768</v>
       </c>
       <c r="N18">
-        <v>16.59801819474521</v>
+        <v>19.02098931447503</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>27.08276189119088</v>
+        <v>19.87850099273479</v>
       </c>
       <c r="C19">
-        <v>14.39308852112159</v>
+        <v>7.5989509615125</v>
       </c>
       <c r="D19">
-        <v>2.354442195257384</v>
+        <v>2.15423951763758</v>
       </c>
       <c r="E19">
-        <v>5.724869123006043</v>
+        <v>5.833744014320212</v>
       </c>
       <c r="F19">
-        <v>46.92008150409715</v>
+        <v>44.41065774976907</v>
       </c>
       <c r="G19">
-        <v>2.123106292478453</v>
+        <v>2.160010224629827</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.851711654536659</v>
+        <v>6.181697781067238</v>
       </c>
       <c r="K19">
-        <v>21.88503843175603</v>
+        <v>15.83069180742689</v>
       </c>
       <c r="L19">
-        <v>6.782290500854014</v>
+        <v>6.456160076834183</v>
       </c>
       <c r="M19">
-        <v>15.79778094704847</v>
+        <v>12.96252152865902</v>
       </c>
       <c r="N19">
-        <v>16.61094654962994</v>
+        <v>19.02850946290825</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.5479037136789</v>
+        <v>20.17261736843994</v>
       </c>
       <c r="C20">
-        <v>14.70223666544769</v>
+        <v>7.753683744961215</v>
       </c>
       <c r="D20">
-        <v>2.402230790462993</v>
+        <v>2.142995989072898</v>
       </c>
       <c r="E20">
-        <v>5.732195403112759</v>
+        <v>5.830075615146176</v>
       </c>
       <c r="F20">
-        <v>47.3795016372536</v>
+        <v>44.70514376740706</v>
       </c>
       <c r="G20">
-        <v>2.118774044706486</v>
+        <v>2.156727060915116</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.837282067450897</v>
+        <v>6.168021524093045</v>
       </c>
       <c r="K20">
-        <v>22.25999789116065</v>
+        <v>16.05550105381517</v>
       </c>
       <c r="L20">
-        <v>6.80805447292588</v>
+        <v>6.473494793950294</v>
       </c>
       <c r="M20">
-        <v>15.97864729981734</v>
+        <v>13.0662367596322</v>
       </c>
       <c r="N20">
-        <v>16.5531659345363</v>
+        <v>18.99505781336831</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.090736958467</v>
+        <v>21.15022881825407</v>
       </c>
       <c r="C21">
-        <v>15.7149503599196</v>
+        <v>8.259017075695201</v>
       </c>
       <c r="D21">
-        <v>2.561875690917959</v>
+        <v>2.104273165674464</v>
       </c>
       <c r="E21">
-        <v>5.758069806685227</v>
+        <v>5.819440953046969</v>
       </c>
       <c r="F21">
-        <v>48.95541779076324</v>
+        <v>45.72067113113707</v>
       </c>
       <c r="G21">
-        <v>2.104285427891728</v>
+        <v>2.145803616961194</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.789142043986335</v>
+        <v>6.122879898443665</v>
       </c>
       <c r="K21">
-        <v>23.50441987977127</v>
+        <v>16.80443017878623</v>
       </c>
       <c r="L21">
-        <v>6.898823578519298</v>
+        <v>6.535131313582299</v>
       </c>
       <c r="M21">
-        <v>16.58946183790656</v>
+        <v>13.41939209799909</v>
       </c>
       <c r="N21">
-        <v>16.36627947321164</v>
+        <v>18.88969636066308</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.08442290856918</v>
+        <v>21.78090229038096</v>
       </c>
       <c r="C22">
-        <v>16.35840474696738</v>
+        <v>8.5787695263034</v>
       </c>
       <c r="D22">
-        <v>2.665805996596677</v>
+        <v>2.078175173900994</v>
       </c>
       <c r="E22">
-        <v>5.776048825392743</v>
+        <v>5.813780332492273</v>
       </c>
       <c r="F22">
-        <v>50.01045415447548</v>
+        <v>46.40421194730132</v>
       </c>
       <c r="G22">
-        <v>2.094842462955168</v>
+        <v>2.13873300556832</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.757876160757899</v>
+        <v>6.0939520413533</v>
       </c>
       <c r="K22">
-        <v>24.30646555609779</v>
+        <v>17.28883554788085</v>
       </c>
       <c r="L22">
-        <v>6.961392383694674</v>
+        <v>6.577999204538735</v>
       </c>
       <c r="M22">
-        <v>16.99098206465704</v>
+        <v>13.65358786961496</v>
       </c>
       <c r="N22">
-        <v>16.24991068677013</v>
+        <v>18.82634733134686</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.55538713860208</v>
+        <v>21.44507320406118</v>
       </c>
       <c r="C23">
-        <v>16.01660084281172</v>
+        <v>8.409051298736179</v>
       </c>
       <c r="D23">
-        <v>2.61035439179466</v>
+        <v>2.09218222033691</v>
       </c>
       <c r="E23">
-        <v>5.766346310454592</v>
+        <v>5.816681493407949</v>
       </c>
       <c r="F23">
-        <v>49.44499194287955</v>
+        <v>46.03755092824303</v>
       </c>
       <c r="G23">
-        <v>2.099881585639818</v>
+        <v>2.142501241505213</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.774549322080558</v>
+        <v>6.109340654158346</v>
       </c>
       <c r="K23">
-        <v>23.87940571082428</v>
+        <v>17.03077723940948</v>
       </c>
       <c r="L23">
-        <v>6.927693593833792</v>
+        <v>6.554879629649333</v>
       </c>
       <c r="M23">
-        <v>16.77646787038329</v>
+        <v>13.52828876087004</v>
       </c>
       <c r="N23">
-        <v>16.31146487178913</v>
+        <v>18.85963533804775</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.52243569025527</v>
+        <v>20.15650454280219</v>
       </c>
       <c r="C24">
-        <v>14.68535974946252</v>
+        <v>7.745242092636144</v>
       </c>
       <c r="D24">
-        <v>2.3996105743673</v>
+        <v>2.143616782314419</v>
       </c>
       <c r="E24">
-        <v>5.731788649362307</v>
+        <v>5.830270777497025</v>
       </c>
       <c r="F24">
-        <v>47.35415298133624</v>
+        <v>44.68887471835588</v>
       </c>
       <c r="G24">
-        <v>2.119011641442408</v>
+        <v>2.156906923716532</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.838073047351284</v>
+        <v>6.168769447898713</v>
       </c>
       <c r="K24">
-        <v>22.23946498649245</v>
+        <v>16.04317875857286</v>
       </c>
       <c r="L24">
-        <v>6.806624082674806</v>
+        <v>6.472530220833203</v>
       </c>
       <c r="M24">
-        <v>15.96870301820445</v>
+        <v>13.06052327683659</v>
       </c>
       <c r="N24">
-        <v>16.55631256285135</v>
+        <v>18.99686901527021</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.26593709565295</v>
+        <v>18.73394963604611</v>
       </c>
       <c r="C25">
-        <v>13.16443201651298</v>
+        <v>6.982007378595882</v>
       </c>
       <c r="D25">
-        <v>2.262237181511992</v>
+        <v>2.196238286846334</v>
       </c>
       <c r="E25">
-        <v>5.698298964583529</v>
+        <v>5.850280929712395</v>
       </c>
       <c r="F25">
-        <v>45.20080463238765</v>
+        <v>43.31691949184269</v>
       </c>
       <c r="G25">
-        <v>2.139907045893308</v>
+        <v>2.172812985975975</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.907798966255347</v>
+        <v>6.235517324040642</v>
       </c>
       <c r="K25">
-        <v>20.42149636117022</v>
+        <v>14.95838190467312</v>
       </c>
       <c r="L25">
-        <v>6.689274312659332</v>
+        <v>6.394450199165584</v>
       </c>
       <c r="M25">
-        <v>15.10772478298492</v>
+        <v>12.57125641387548</v>
       </c>
       <c r="N25">
-        <v>16.84294714335389</v>
+        <v>19.16687539898666</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1210 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.66299311274711</v>
+        <v>13.59426851663776</v>
       </c>
       <c r="C2">
-        <v>6.377277791956495</v>
+        <v>6.597800799220956</v>
       </c>
       <c r="D2">
-        <v>2.233061271327106</v>
+        <v>4.084765252950589</v>
       </c>
       <c r="E2">
-        <v>5.869436645288932</v>
+        <v>6.979895937199945</v>
       </c>
       <c r="F2">
-        <v>42.3755645054481</v>
+        <v>28.33910783040351</v>
       </c>
       <c r="G2">
-        <v>2.184915122733178</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>36.01172657826661</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4.381921968246107</v>
       </c>
       <c r="J2">
-        <v>6.28712556050673</v>
+        <v>12.46875829288967</v>
       </c>
       <c r="K2">
-        <v>14.1463905063472</v>
+        <v>20.13591855092497</v>
       </c>
       <c r="L2">
-        <v>6.345815287848398</v>
+        <v>5.987221775203542</v>
       </c>
       <c r="M2">
-        <v>12.22512325408961</v>
+        <v>10.91863805710529</v>
       </c>
       <c r="N2">
-        <v>19.30935002818139</v>
+        <v>6.69529295510341</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>10.47726949375384</v>
+      </c>
+      <c r="P2">
+        <v>14.92968616685946</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.92588326272655</v>
+        <v>12.82687516568223</v>
       </c>
       <c r="C3">
-        <v>5.939807838712426</v>
+        <v>6.220077972634882</v>
       </c>
       <c r="D3">
-        <v>2.257055218964969</v>
+        <v>3.982814477795756</v>
       </c>
       <c r="E3">
-        <v>5.885098299860918</v>
+        <v>6.978733475471024</v>
       </c>
       <c r="F3">
-        <v>41.77944840661777</v>
+        <v>28.09292691732056</v>
       </c>
       <c r="G3">
-        <v>2.193393832129556</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>35.60129761142568</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4.579442306980829</v>
       </c>
       <c r="J3">
-        <v>6.323722609794578</v>
+        <v>12.47521749770688</v>
       </c>
       <c r="K3">
-        <v>13.59039347919537</v>
+        <v>20.13784093500293</v>
       </c>
       <c r="L3">
-        <v>6.318188514503907</v>
+        <v>6.010938843769857</v>
       </c>
       <c r="M3">
-        <v>11.99992868055997</v>
+        <v>10.33482641534099</v>
       </c>
       <c r="N3">
-        <v>19.41601046479516</v>
+        <v>6.64995944959901</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>10.19998307534365</v>
+      </c>
+      <c r="P3">
+        <v>15.09785040546467</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.46917226006255</v>
+        <v>12.33248901208077</v>
       </c>
       <c r="C4">
-        <v>5.657279829745489</v>
+        <v>5.979214319123398</v>
       </c>
       <c r="D4">
-        <v>2.271384360633954</v>
+        <v>3.920738939291787</v>
       </c>
       <c r="E4">
-        <v>5.89601295405476</v>
+        <v>6.97947862272104</v>
       </c>
       <c r="F4">
-        <v>41.43371464565433</v>
+        <v>27.95195194935712</v>
       </c>
       <c r="G4">
-        <v>2.198746443886699</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>35.36233510994733</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4.705746709738472</v>
       </c>
       <c r="J4">
-        <v>6.347019542155988</v>
+        <v>12.48312832639442</v>
       </c>
       <c r="K4">
-        <v>13.24728773431625</v>
+        <v>20.14445875155944</v>
       </c>
       <c r="L4">
-        <v>6.303793118929802</v>
+        <v>6.025939842734464</v>
       </c>
       <c r="M4">
-        <v>11.86649293568244</v>
+        <v>9.961976802932995</v>
       </c>
       <c r="N4">
-        <v>19.48628401222451</v>
+        <v>6.625350488459699</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>10.02887736147132</v>
+      </c>
+      <c r="P4">
+        <v>15.20298640004555</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.28227816960705</v>
+        <v>12.12029069184552</v>
       </c>
       <c r="C5">
-        <v>5.538608579889893</v>
+        <v>5.88423782052784</v>
       </c>
       <c r="D5">
-        <v>2.277131943233764</v>
+        <v>3.896826405588112</v>
       </c>
       <c r="E5">
-        <v>5.900784026762324</v>
+        <v>6.979847589499127</v>
       </c>
       <c r="F5">
-        <v>41.29787169922432</v>
+        <v>27.88928988847261</v>
       </c>
       <c r="G5">
-        <v>2.200965932317544</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>35.25459057793843</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>4.760865008497147</v>
       </c>
       <c r="J5">
-        <v>6.356724625037109</v>
+        <v>12.48486665475895</v>
       </c>
       <c r="K5">
-        <v>13.10722580778138</v>
+        <v>20.14271755381034</v>
       </c>
       <c r="L5">
-        <v>6.298563173906814</v>
+        <v>6.031940908839779</v>
       </c>
       <c r="M5">
-        <v>11.81336417361754</v>
+        <v>9.805664915545528</v>
       </c>
       <c r="N5">
-        <v>19.51609655238171</v>
+        <v>6.617245938763128</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.958331303013022</v>
+      </c>
+      <c r="P5">
+        <v>15.2450961105015</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.251205489729</v>
+        <v>12.07852872856507</v>
       </c>
       <c r="C6">
-        <v>5.518688507278552</v>
+        <v>5.874959934383488</v>
       </c>
       <c r="D6">
-        <v>2.278081062047993</v>
+        <v>3.894356612380671</v>
       </c>
       <c r="E6">
-        <v>5.901595694132329</v>
+        <v>6.97956469372871</v>
       </c>
       <c r="F6">
-        <v>41.27561815309802</v>
+        <v>27.86954710706012</v>
       </c>
       <c r="G6">
-        <v>2.201336826084742</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>35.2202131405957</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>4.773106789987721</v>
       </c>
       <c r="J6">
-        <v>6.358349017759794</v>
+        <v>12.48221082325371</v>
       </c>
       <c r="K6">
-        <v>13.0839598515222</v>
+        <v>20.13544935700886</v>
       </c>
       <c r="L6">
-        <v>6.297732897966893</v>
+        <v>6.032670718613084</v>
       </c>
       <c r="M6">
-        <v>11.80461841690971</v>
+        <v>9.778385110918684</v>
       </c>
       <c r="N6">
-        <v>19.52111714236412</v>
+        <v>6.617316581737803</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.945754252543848</v>
+      </c>
+      <c r="P6">
+        <v>15.25062765447476</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.46665454049934</v>
+        <v>12.31307259111455</v>
       </c>
       <c r="C7">
-        <v>5.655693765049104</v>
+        <v>5.995680641446725</v>
       </c>
       <c r="D7">
-        <v>2.271462233242356</v>
+        <v>3.924444004147191</v>
       </c>
       <c r="E7">
-        <v>5.896075993612627</v>
+        <v>6.978483783883045</v>
       </c>
       <c r="F7">
-        <v>41.43186226400725</v>
+        <v>27.92526462625852</v>
       </c>
       <c r="G7">
-        <v>2.198776220019814</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>35.31548476313768</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4.714469480612362</v>
       </c>
       <c r="J7">
-        <v>6.347149567666696</v>
+        <v>12.47496233460997</v>
       </c>
       <c r="K7">
-        <v>13.24539953109495</v>
+        <v>20.1251769848015</v>
       </c>
       <c r="L7">
-        <v>6.303720022243738</v>
+        <v>6.025281744086549</v>
       </c>
       <c r="M7">
-        <v>11.8657713312295</v>
+        <v>9.956865829574236</v>
       </c>
       <c r="N7">
-        <v>19.48668134949079</v>
+        <v>6.628958405251622</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>10.02559026062113</v>
+      </c>
+      <c r="P7">
+        <v>15.19952686950857</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.4098369290091</v>
+        <v>13.31404872647024</v>
       </c>
       <c r="C8">
-        <v>6.229302963447423</v>
+        <v>6.491367885944327</v>
       </c>
       <c r="D8">
-        <v>2.241424140301986</v>
+        <v>4.05467178662069</v>
       </c>
       <c r="E8">
-        <v>5.874565309802147</v>
+        <v>6.977875492086088</v>
       </c>
       <c r="F8">
-        <v>42.16578277174631</v>
+        <v>28.2183784639457</v>
       </c>
       <c r="G8">
-        <v>2.187809000852423</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>35.80839960490778</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>4.45912676525667</v>
       </c>
       <c r="J8">
-        <v>6.299574992118032</v>
+        <v>12.45939089781377</v>
       </c>
       <c r="K8">
-        <v>13.95514695884138</v>
+        <v>20.11010112057837</v>
       </c>
       <c r="L8">
-        <v>6.335751124913235</v>
+        <v>5.994366867749647</v>
       </c>
       <c r="M8">
-        <v>12.14649206161819</v>
+        <v>10.7166189119346</v>
       </c>
       <c r="N8">
-        <v>19.34511650892502</v>
+        <v>6.683846376269844</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>10.37885128375801</v>
+      </c>
+      <c r="P8">
+        <v>14.98216011929989</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>19.21716431130904</v>
+        <v>15.11434867242104</v>
       </c>
       <c r="C9">
-        <v>7.245610620743697</v>
+        <v>7.363453697448993</v>
       </c>
       <c r="D9">
-        <v>2.178844958098295</v>
+        <v>4.305832740248587</v>
       </c>
       <c r="E9">
-        <v>5.842842230150507</v>
+        <v>6.990145965929803</v>
       </c>
       <c r="F9">
-        <v>43.76822890184865</v>
+        <v>28.91988761584239</v>
       </c>
       <c r="G9">
-        <v>2.167399044228428</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>36.95800030338781</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.984439010787618</v>
       </c>
       <c r="J9">
-        <v>6.212662713449615</v>
+        <v>12.47571835340713</v>
       </c>
       <c r="K9">
-        <v>15.32614193967956</v>
+        <v>20.1593545514667</v>
       </c>
       <c r="L9">
-        <v>6.419350642227753</v>
+        <v>5.93840500282651</v>
       </c>
       <c r="M9">
-        <v>12.73394673083556</v>
+        <v>12.16190806554807</v>
       </c>
       <c r="N9">
-        <v>19.1068218137744</v>
+        <v>6.810675639153992</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>11.06497842707994</v>
+      </c>
+      <c r="P9">
+        <v>14.5769663064977</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.50897283210192</v>
+        <v>16.30932408487262</v>
       </c>
       <c r="C10">
-        <v>7.929021933490789</v>
+        <v>7.968233346840351</v>
       </c>
       <c r="D10">
-        <v>2.129908483194729</v>
+        <v>4.491891517683854</v>
       </c>
       <c r="E10">
-        <v>5.826151891027325</v>
+        <v>7.005951664100094</v>
       </c>
       <c r="F10">
-        <v>45.04829350190135</v>
+        <v>29.47308116680716</v>
       </c>
       <c r="G10">
-        <v>2.152971763318944</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>37.84401379643736</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.663161798380973</v>
       </c>
       <c r="J10">
-        <v>6.152440310272518</v>
+        <v>12.50491032264025</v>
       </c>
       <c r="K10">
-        <v>16.31289273102385</v>
+        <v>20.21544900365733</v>
       </c>
       <c r="L10">
-        <v>6.494017336031963</v>
+        <v>5.898929316603814</v>
       </c>
       <c r="M10">
-        <v>13.18631974838105</v>
+        <v>13.24017616543351</v>
       </c>
       <c r="N10">
-        <v>18.95780793406699</v>
+        <v>6.921424586922287</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.55656443159294</v>
+      </c>
+      <c r="P10">
+        <v>14.28513307228872</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.08735567721481</v>
+        <v>16.80572796624718</v>
       </c>
       <c r="C11">
-        <v>8.226891971927129</v>
+        <v>8.255755434315986</v>
       </c>
       <c r="D11">
-        <v>2.106826583423496</v>
+        <v>4.581665610833204</v>
       </c>
       <c r="E11">
-        <v>5.820055533137233</v>
+        <v>7.013150240488403</v>
       </c>
       <c r="F11">
-        <v>45.65371898117188</v>
+        <v>29.69653388241521</v>
       </c>
       <c r="G11">
-        <v>2.146507198071711</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>38.19289813653099</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.536161784082076</v>
       </c>
       <c r="J11">
-        <v>6.125770912836064</v>
+        <v>12.51014455508425</v>
       </c>
       <c r="K11">
-        <v>16.75619067154943</v>
+        <v>20.21724826367373</v>
       </c>
       <c r="L11">
-        <v>6.530987868583027</v>
+        <v>5.88032170081844</v>
       </c>
       <c r="M11">
-        <v>13.39630873721683</v>
+        <v>13.70016230069188</v>
       </c>
       <c r="N11">
-        <v>18.89620829330849</v>
+        <v>6.980904501137377</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>11.7733445656567</v>
+      </c>
+      <c r="P11">
+        <v>14.14808540278175</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.3049633863048</v>
+        <v>17.00103253852052</v>
       </c>
       <c r="C12">
-        <v>8.337879712352013</v>
+        <v>8.351336606830358</v>
       </c>
       <c r="D12">
-        <v>2.097951844561126</v>
+        <v>4.612548288085174</v>
       </c>
       <c r="E12">
-        <v>5.817967727085348</v>
+        <v>7.016966546249126</v>
       </c>
       <c r="F12">
-        <v>45.88637579023471</v>
+        <v>29.80377978368092</v>
       </c>
       <c r="G12">
-        <v>2.14407115995129</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>38.36345689819196</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.48150183956777</v>
       </c>
       <c r="J12">
-        <v>6.115770881200542</v>
+        <v>12.51978832028195</v>
       </c>
       <c r="K12">
-        <v>16.9231913844611</v>
+        <v>20.23526102750159</v>
       </c>
       <c r="L12">
-        <v>6.54543034658296</v>
+        <v>5.873900142501536</v>
       </c>
       <c r="M12">
-        <v>13.47640927942845</v>
+        <v>13.87292118780227</v>
       </c>
       <c r="N12">
-        <v>18.87382251978228</v>
+        <v>7.000875110511208</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>11.85675944256709</v>
+      </c>
+      <c r="P12">
+        <v>14.09945588180635</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.25816146461305</v>
+        <v>16.96134144435768</v>
       </c>
       <c r="C13">
-        <v>8.31405592279066</v>
+        <v>8.328465859208404</v>
       </c>
       <c r="D13">
-        <v>2.099869416888843</v>
+        <v>4.605303975594376</v>
       </c>
       <c r="E13">
-        <v>5.81840745997374</v>
+        <v>7.016306068478011</v>
       </c>
       <c r="F13">
-        <v>45.83611668603811</v>
+        <v>29.78480795507723</v>
       </c>
       <c r="G13">
-        <v>2.144595310128838</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>38.33389897342848</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.49168493424109</v>
       </c>
       <c r="J13">
-        <v>6.117920248925913</v>
+        <v>12.519066462458</v>
       </c>
       <c r="K13">
-        <v>16.88726408879986</v>
+        <v>20.23460424753106</v>
       </c>
       <c r="L13">
-        <v>6.542300043788124</v>
+        <v>5.875393808012162</v>
       </c>
       <c r="M13">
-        <v>13.45913258232345</v>
+        <v>13.83633442356131</v>
       </c>
       <c r="N13">
-        <v>18.87860098862408</v>
+        <v>6.99594467996572</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>11.83919314525099</v>
+      </c>
+      <c r="P13">
+        <v>14.11053409859801</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.10528706445854</v>
+        <v>16.82281435753211</v>
       </c>
       <c r="C14">
-        <v>8.236058880017396</v>
+        <v>8.262641842169447</v>
       </c>
       <c r="D14">
-        <v>2.106099239232835</v>
+        <v>4.583953133469018</v>
       </c>
       <c r="E14">
-        <v>5.819879309696956</v>
+        <v>7.013532563608211</v>
       </c>
       <c r="F14">
-        <v>45.67279129042544</v>
+        <v>29.70711251741941</v>
       </c>
       <c r="G14">
-        <v>2.146306557586062</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>38.20998564426717</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.530986697925314</v>
       </c>
       <c r="J14">
-        <v>6.124946250209582</v>
+        <v>12.51151337744765</v>
       </c>
       <c r="K14">
-        <v>16.76994756666445</v>
+        <v>20.22009930270653</v>
       </c>
       <c r="L14">
-        <v>6.53216712816753</v>
+        <v>5.879840465070655</v>
       </c>
       <c r="M14">
-        <v>13.40288709169327</v>
+        <v>13.71464435511672</v>
       </c>
       <c r="N14">
-        <v>18.89434743798557</v>
+        <v>6.982278883758733</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>11.78037758069718</v>
+      </c>
+      <c r="P14">
+        <v>14.14434188900148</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.01146119207568</v>
+        <v>16.73306448468512</v>
       </c>
       <c r="C15">
-        <v>8.188049784920718</v>
+        <v>8.226838664865554</v>
       </c>
       <c r="D15">
-        <v>2.10989721355146</v>
+        <v>4.572051482543731</v>
       </c>
       <c r="E15">
-        <v>5.820809784818583</v>
+        <v>7.011525436144983</v>
       </c>
       <c r="F15">
-        <v>45.57319429644806</v>
+        <v>29.65142257818545</v>
       </c>
       <c r="G15">
-        <v>2.147356233600106</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>38.11995031946637</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.558270999438726</v>
       </c>
       <c r="J15">
-        <v>6.129262618623089</v>
+        <v>12.50424477472831</v>
       </c>
       <c r="K15">
-        <v>16.69797347786181</v>
+        <v>20.2049017985873</v>
       </c>
       <c r="L15">
-        <v>6.526018379878412</v>
+        <v>5.882347560570269</v>
       </c>
       <c r="M15">
-        <v>13.36851038404413</v>
+        <v>13.63871244998946</v>
       </c>
       <c r="N15">
-        <v>18.90411670370495</v>
+        <v>6.975174797812265</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>11.74353817002384</v>
+      </c>
+      <c r="P15">
+        <v>14.16386292318812</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.47098001886355</v>
+        <v>16.23858372563147</v>
       </c>
       <c r="C16">
-        <v>7.909298721032421</v>
+        <v>7.989570060500621</v>
       </c>
       <c r="D16">
-        <v>2.131399083758796</v>
+        <v>4.496166624658867</v>
       </c>
       <c r="E16">
-        <v>5.826580875318371</v>
+        <v>7.002655013955014</v>
       </c>
       <c r="F16">
-        <v>45.00919846483743</v>
+        <v>29.38821497334241</v>
       </c>
       <c r="G16">
-        <v>2.153396035256353</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>37.69920074866723</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.696376518360889</v>
       </c>
       <c r="J16">
-        <v>6.154197383049471</v>
+        <v>12.48152158435865</v>
       </c>
       <c r="K16">
-        <v>16.28380382138068</v>
+        <v>20.16096958878321</v>
       </c>
       <c r="L16">
-        <v>6.491662564691156</v>
+        <v>5.898249723807012</v>
       </c>
       <c r="M16">
-        <v>13.17267901786968</v>
+        <v>13.20178930407915</v>
       </c>
       <c r="N16">
-        <v>18.96196235063687</v>
+        <v>6.927801540729728</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>11.53603862207364</v>
+      </c>
+      <c r="P16">
+        <v>14.28380734799073</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>20.13697083364114</v>
+        <v>15.92829718298413</v>
       </c>
       <c r="C17">
-        <v>7.735002861801468</v>
+        <v>7.841688571805576</v>
       </c>
       <c r="D17">
-        <v>2.144368622765416</v>
+        <v>4.449475805698749</v>
       </c>
       <c r="E17">
-        <v>5.830508268572699</v>
+        <v>6.997640118556306</v>
       </c>
       <c r="F17">
-        <v>44.66917259373776</v>
+        <v>29.22974806936577</v>
       </c>
       <c r="G17">
-        <v>2.157124971348091</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>37.44484777413791</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.782395827394515</v>
       </c>
       <c r="J17">
-        <v>6.169676358599689</v>
+        <v>12.46895047994968</v>
       </c>
       <c r="K17">
-        <v>16.02824131893622</v>
+        <v>20.13600616292142</v>
       </c>
       <c r="L17">
-        <v>6.471363160193127</v>
+        <v>5.908111722036464</v>
       </c>
       <c r="M17">
-        <v>13.05360162921884</v>
+        <v>12.92702910647323</v>
       </c>
       <c r="N17">
-        <v>18.99906805835626</v>
+        <v>6.89958926683232</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>11.40784653486567</v>
+      </c>
+      <c r="P17">
+        <v>14.35776745122823</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.94398801105017</v>
+        <v>15.75904618194655</v>
       </c>
       <c r="C18">
-        <v>7.633523190555458</v>
+        <v>7.743187745563959</v>
       </c>
       <c r="D18">
-        <v>2.151752185183145</v>
+        <v>4.419444340062076</v>
       </c>
       <c r="E18">
-        <v>5.832907659611431</v>
+        <v>6.995779461448665</v>
       </c>
       <c r="F18">
-        <v>44.47576971251909</v>
+        <v>29.16123888291843</v>
       </c>
       <c r="G18">
-        <v>2.159279169466583</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>37.33736606986105</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.824238453666713</v>
       </c>
       <c r="J18">
-        <v>6.178648138587888</v>
+        <v>12.46924292759012</v>
       </c>
       <c r="K18">
-        <v>15.88072556002962</v>
+        <v>20.13890235540794</v>
       </c>
       <c r="L18">
-        <v>6.459969598193725</v>
+        <v>5.914405483837195</v>
       </c>
       <c r="M18">
-        <v>12.98550799369768</v>
+        <v>12.76893861734135</v>
       </c>
       <c r="N18">
-        <v>19.02098931447503</v>
+        <v>6.880557174750625</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>11.33573266859967</v>
+      </c>
+      <c r="P18">
+        <v>14.40358780523992</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.87850099273479</v>
+        <v>15.69225793123233</v>
       </c>
       <c r="C19">
-        <v>7.5989509615125</v>
+        <v>7.719372560182469</v>
       </c>
       <c r="D19">
-        <v>2.15423951763758</v>
+        <v>4.411683585816951</v>
       </c>
       <c r="E19">
-        <v>5.833744014320212</v>
+        <v>6.99450692748746</v>
       </c>
       <c r="F19">
-        <v>44.41065774976907</v>
+        <v>29.12163600754235</v>
       </c>
       <c r="G19">
-        <v>2.160010224629827</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>37.27237245771106</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.844688686812656</v>
       </c>
       <c r="J19">
-        <v>6.181697781067238</v>
+        <v>12.46400526787413</v>
       </c>
       <c r="K19">
-        <v>15.83069180742689</v>
+        <v>20.12725046735949</v>
       </c>
       <c r="L19">
-        <v>6.456160076834183</v>
+        <v>5.916094905007096</v>
       </c>
       <c r="M19">
-        <v>12.96252152865902</v>
+        <v>12.71311602069071</v>
       </c>
       <c r="N19">
-        <v>19.02850946290825</v>
+        <v>6.876569777747397</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>11.30978072743397</v>
+      </c>
+      <c r="P19">
+        <v>14.41670864470214</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>20.17261736843994</v>
+        <v>15.96250322043469</v>
       </c>
       <c r="C20">
-        <v>7.753683744961215</v>
+        <v>7.85654290342176</v>
       </c>
       <c r="D20">
-        <v>2.142995989072898</v>
+        <v>4.454206468351038</v>
       </c>
       <c r="E20">
-        <v>5.830075615146176</v>
+        <v>6.998225874032848</v>
       </c>
       <c r="F20">
-        <v>44.70514376740706</v>
+        <v>29.24818659811263</v>
       </c>
       <c r="G20">
-        <v>2.156727060915116</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>37.47470453969936</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.77254385247334</v>
       </c>
       <c r="J20">
-        <v>6.168021524093045</v>
+        <v>12.47078824920341</v>
       </c>
       <c r="K20">
-        <v>16.05550105381517</v>
+        <v>20.13988509114963</v>
       </c>
       <c r="L20">
-        <v>6.473494793950294</v>
+        <v>5.907103236458319</v>
       </c>
       <c r="M20">
-        <v>13.0662367596322</v>
+        <v>12.95672284412593</v>
       </c>
       <c r="N20">
-        <v>18.99505781336831</v>
+        <v>6.902316260838556</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.42167573132836</v>
+      </c>
+      <c r="P20">
+        <v>14.35012431158113</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.15022881825407</v>
+        <v>16.85124138166003</v>
       </c>
       <c r="C21">
-        <v>8.259017075695201</v>
+        <v>8.295212790454661</v>
       </c>
       <c r="D21">
-        <v>2.104273165674464</v>
+        <v>4.593586965782889</v>
       </c>
       <c r="E21">
-        <v>5.819440953046969</v>
+        <v>7.013376106653199</v>
       </c>
       <c r="F21">
-        <v>45.72067113113707</v>
+        <v>29.70633085893834</v>
       </c>
       <c r="G21">
-        <v>2.145803616961194</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>38.20554749939069</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.528376357700072</v>
       </c>
       <c r="J21">
-        <v>6.122879898443665</v>
+        <v>12.50592270052895</v>
       </c>
       <c r="K21">
-        <v>16.80443017878623</v>
+        <v>20.20599601767631</v>
       </c>
       <c r="L21">
-        <v>6.535131313582299</v>
+        <v>5.877897951069082</v>
       </c>
       <c r="M21">
-        <v>13.41939209799909</v>
+        <v>13.7479350420545</v>
       </c>
       <c r="N21">
-        <v>18.88969636066308</v>
+        <v>6.989692523016896</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.79557222734069</v>
+      </c>
+      <c r="P21">
+        <v>14.13097215109574</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.78090229038096</v>
+        <v>17.42495806873978</v>
       </c>
       <c r="C22">
-        <v>8.5787695263034</v>
+        <v>8.557612528925333</v>
       </c>
       <c r="D22">
-        <v>2.078175173900994</v>
+        <v>4.67986408884689</v>
       </c>
       <c r="E22">
-        <v>5.813780332492273</v>
+        <v>7.025911026694891</v>
       </c>
       <c r="F22">
-        <v>46.40421194730132</v>
+        <v>30.04545399368062</v>
       </c>
       <c r="G22">
-        <v>2.13873300556832</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>38.74714254794129</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.361505671116332</v>
       </c>
       <c r="J22">
-        <v>6.0939520413533</v>
+        <v>12.54336593706224</v>
       </c>
       <c r="K22">
-        <v>17.28883554788085</v>
+        <v>20.27914836163976</v>
       </c>
       <c r="L22">
-        <v>6.577999204538735</v>
+        <v>5.859958229388116</v>
       </c>
       <c r="M22">
-        <v>13.65358786961496</v>
+        <v>14.24643914242696</v>
       </c>
       <c r="N22">
-        <v>18.82634733134686</v>
+        <v>7.04524039547539</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.03940347887866</v>
+      </c>
+      <c r="P22">
+        <v>13.99326678886438</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.44507320406118</v>
+        <v>17.13562527552397</v>
       </c>
       <c r="C23">
-        <v>8.409051298736179</v>
+        <v>8.402493583479155</v>
       </c>
       <c r="D23">
-        <v>2.09218222033691</v>
+        <v>4.629851249689239</v>
       </c>
       <c r="E23">
-        <v>5.816681493407949</v>
+        <v>7.02025280595607</v>
       </c>
       <c r="F23">
-        <v>46.03755092824303</v>
+        <v>29.89186972485963</v>
       </c>
       <c r="G23">
-        <v>2.142501241505213</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>38.50594429846823</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.439677773372154</v>
       </c>
       <c r="J23">
-        <v>6.109340654158346</v>
+        <v>12.53233008434101</v>
       </c>
       <c r="K23">
-        <v>17.03077723940948</v>
+        <v>20.26156292667122</v>
       </c>
       <c r="L23">
-        <v>6.554879629649333</v>
+        <v>5.870265604184959</v>
       </c>
       <c r="M23">
-        <v>13.52828876087004</v>
+        <v>13.98541547281735</v>
       </c>
       <c r="N23">
-        <v>18.85963533804775</v>
+        <v>7.011240628534551</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.91209463291373</v>
+      </c>
+      <c r="P23">
+        <v>14.07079892791594</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>20.15650454280219</v>
+        <v>15.97166189147629</v>
       </c>
       <c r="C24">
-        <v>7.745242092636144</v>
+        <v>7.823511032641445</v>
       </c>
       <c r="D24">
-        <v>2.143616782314419</v>
+        <v>4.445483930678659</v>
       </c>
       <c r="E24">
-        <v>5.830270777497025</v>
+        <v>6.999795412295774</v>
       </c>
       <c r="F24">
-        <v>44.68887471835588</v>
+        <v>29.2852682544316</v>
       </c>
       <c r="G24">
-        <v>2.156906923716532</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>37.54009356955887</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.76048527653169</v>
       </c>
       <c r="J24">
-        <v>6.168769447898713</v>
+        <v>12.48481802697348</v>
       </c>
       <c r="K24">
-        <v>16.04317875857286</v>
+        <v>20.17310893764215</v>
       </c>
       <c r="L24">
-        <v>6.472530220833203</v>
+        <v>5.908786125628796</v>
       </c>
       <c r="M24">
-        <v>13.06052327683659</v>
+        <v>12.94838971793945</v>
       </c>
       <c r="N24">
-        <v>18.99686901527021</v>
+        <v>6.894509641939374</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.41948305017632</v>
+      </c>
+      <c r="P24">
+        <v>14.3602087847231</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.73394963604611</v>
+        <v>14.62258583249661</v>
       </c>
       <c r="C25">
-        <v>6.982007378595882</v>
+        <v>7.162602882645998</v>
       </c>
       <c r="D25">
-        <v>2.196238286846334</v>
+        <v>4.244492462827389</v>
       </c>
       <c r="E25">
-        <v>5.850280929712395</v>
+        <v>6.983770151379249</v>
       </c>
       <c r="F25">
-        <v>43.31691949184269</v>
+        <v>28.67625186766544</v>
       </c>
       <c r="G25">
-        <v>2.172812985975975</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>36.55727103432538</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4.123159139116589</v>
       </c>
       <c r="J25">
-        <v>6.235517324040642</v>
+        <v>12.45312241193169</v>
       </c>
       <c r="K25">
-        <v>14.95838190467312</v>
+        <v>20.10674569748473</v>
       </c>
       <c r="L25">
-        <v>6.394450199165584</v>
+        <v>5.951958184197556</v>
       </c>
       <c r="M25">
-        <v>12.57125641387548</v>
+        <v>11.7353937759824</v>
       </c>
       <c r="N25">
-        <v>19.16687539898666</v>
+        <v>6.780100888366601</v>
       </c>
       <c r="O25">
+        <v>10.87698976488341</v>
+      </c>
+      <c r="P25">
+        <v>14.67848274884206</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_3/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_3/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1204 +421,1354 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.59426851663776</v>
+        <v>13.01895303883759</v>
       </c>
       <c r="C2">
-        <v>6.597800799220956</v>
+        <v>6.764088163777908</v>
       </c>
       <c r="D2">
-        <v>4.084765252950589</v>
+        <v>4.249933828247571</v>
       </c>
       <c r="E2">
-        <v>6.979895937199945</v>
+        <v>6.87597194331631</v>
       </c>
       <c r="F2">
-        <v>28.33910783040351</v>
+        <v>27.0429035678302</v>
       </c>
       <c r="G2">
-        <v>36.01172657826661</v>
+        <v>33.87215413222388</v>
       </c>
       <c r="I2">
-        <v>4.381921968246107</v>
+        <v>4.09374634231408</v>
       </c>
       <c r="J2">
-        <v>12.46875829288967</v>
+        <v>11.97489160534112</v>
       </c>
       <c r="K2">
-        <v>20.13591855092497</v>
+        <v>18.95062128040239</v>
       </c>
       <c r="L2">
-        <v>5.987221775203542</v>
+        <v>14.65265594479206</v>
       </c>
       <c r="M2">
-        <v>10.91863805710529</v>
+        <v>13.39301632461616</v>
       </c>
       <c r="N2">
-        <v>6.69529295510341</v>
+        <v>5.863678307977092</v>
       </c>
       <c r="O2">
-        <v>10.47726949375384</v>
+        <v>10.78903917449755</v>
       </c>
       <c r="P2">
-        <v>14.92968616685946</v>
+        <v>6.90377477711553</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.30020696412966</v>
+      </c>
+      <c r="R2">
+        <v>14.53230636062744</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.82687516568223</v>
+        <v>12.27893996775172</v>
       </c>
       <c r="C3">
-        <v>6.220077972634882</v>
+        <v>6.307100636518023</v>
       </c>
       <c r="D3">
-        <v>3.982814477795756</v>
+        <v>4.138712209929023</v>
       </c>
       <c r="E3">
-        <v>6.978733475471024</v>
+        <v>6.877827829469122</v>
       </c>
       <c r="F3">
-        <v>28.09292691732056</v>
+        <v>26.85203920181883</v>
       </c>
       <c r="G3">
-        <v>35.60129761142568</v>
+        <v>33.64252726704932</v>
       </c>
       <c r="I3">
-        <v>4.579442306980829</v>
+        <v>4.266062419977199</v>
       </c>
       <c r="J3">
-        <v>12.47521749770688</v>
+        <v>11.94735881822391</v>
       </c>
       <c r="K3">
-        <v>20.13784093500293</v>
+        <v>18.99090834079868</v>
       </c>
       <c r="L3">
-        <v>6.010938843769857</v>
+        <v>14.74515582147933</v>
       </c>
       <c r="M3">
-        <v>10.33482641534099</v>
+        <v>13.39422134386664</v>
       </c>
       <c r="N3">
-        <v>6.64995944959901</v>
+        <v>5.885565611656546</v>
       </c>
       <c r="O3">
-        <v>10.19998307534365</v>
+        <v>10.20218958078095</v>
       </c>
       <c r="P3">
-        <v>15.09785040546467</v>
+        <v>6.848155966858678</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.01877351536509</v>
+      </c>
+      <c r="R3">
+        <v>14.69679850994467</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.33248901208077</v>
+        <v>11.80001876425868</v>
       </c>
       <c r="C4">
-        <v>5.979214319123398</v>
+        <v>6.014277094399023</v>
       </c>
       <c r="D4">
-        <v>3.920738939291787</v>
+        <v>4.071055479992826</v>
       </c>
       <c r="E4">
-        <v>6.97947862272104</v>
+        <v>6.880378790796428</v>
       </c>
       <c r="F4">
-        <v>27.95195194935712</v>
+        <v>26.74308248746357</v>
       </c>
       <c r="G4">
-        <v>35.36233510994733</v>
+        <v>33.51657212189129</v>
       </c>
       <c r="I4">
-        <v>4.705746709738472</v>
+        <v>4.376576498991624</v>
       </c>
       <c r="J4">
-        <v>12.48312832639442</v>
+        <v>11.93172828067043</v>
       </c>
       <c r="K4">
-        <v>20.14445875155944</v>
+        <v>19.01943302017749</v>
       </c>
       <c r="L4">
-        <v>6.025939842734464</v>
+        <v>14.80105129587795</v>
       </c>
       <c r="M4">
-        <v>9.961976802932995</v>
+        <v>13.41310549063586</v>
       </c>
       <c r="N4">
-        <v>6.625350488459699</v>
+        <v>5.899393315083221</v>
       </c>
       <c r="O4">
-        <v>10.02887736147132</v>
+        <v>9.826140592329535</v>
       </c>
       <c r="P4">
-        <v>15.20298640004555</v>
+        <v>6.817399490492685</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.84432753056347</v>
+      </c>
+      <c r="R4">
+        <v>14.79961029223081</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.12029069184552</v>
+        <v>11.59373596043022</v>
       </c>
       <c r="C5">
-        <v>5.88423782052784</v>
+        <v>5.897877696871536</v>
       </c>
       <c r="D5">
-        <v>3.896826405588112</v>
+        <v>4.044892175270038</v>
       </c>
       <c r="E5">
-        <v>6.979847589499127</v>
+        <v>6.881486269214007</v>
       </c>
       <c r="F5">
-        <v>27.88928988847261</v>
+        <v>26.69311787994101</v>
       </c>
       <c r="G5">
-        <v>35.25459057793843</v>
+        <v>33.45580273014583</v>
       </c>
       <c r="I5">
-        <v>4.760865008497147</v>
+        <v>4.425548474068463</v>
       </c>
       <c r="J5">
-        <v>12.48486665475895</v>
+        <v>11.92315027566774</v>
       </c>
       <c r="K5">
-        <v>20.14271755381034</v>
+        <v>19.02644230824511</v>
       </c>
       <c r="L5">
-        <v>6.031940908839779</v>
+        <v>14.81830695603406</v>
       </c>
       <c r="M5">
-        <v>9.805664915545528</v>
+        <v>13.42220239097298</v>
       </c>
       <c r="N5">
-        <v>6.617245938763128</v>
+        <v>5.904927617639697</v>
       </c>
       <c r="O5">
-        <v>9.958331303013022</v>
+        <v>9.668168492164378</v>
       </c>
       <c r="P5">
-        <v>15.2450961105015</v>
+        <v>6.806821438463611</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.772218015815135</v>
+      </c>
+      <c r="R5">
+        <v>14.84092887789589</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.07852872856507</v>
+        <v>11.55293548448235</v>
       </c>
       <c r="C6">
-        <v>5.874959934383488</v>
+        <v>5.885701483949937</v>
       </c>
       <c r="D6">
-        <v>3.894356612380671</v>
+        <v>4.042036275855373</v>
       </c>
       <c r="E6">
-        <v>6.97956469372871</v>
+        <v>6.881342910482223</v>
       </c>
       <c r="F6">
-        <v>27.86954710706012</v>
+        <v>26.67563773575241</v>
       </c>
       <c r="G6">
-        <v>35.2202131405957</v>
+        <v>33.42987839578261</v>
       </c>
       <c r="I6">
-        <v>4.773106789987721</v>
+        <v>4.437254097277007</v>
       </c>
       <c r="J6">
-        <v>12.48221082325371</v>
+        <v>11.91865745283508</v>
       </c>
       <c r="K6">
-        <v>20.13544935700886</v>
+        <v>19.02088897883512</v>
       </c>
       <c r="L6">
-        <v>6.032670718613084</v>
+        <v>14.81469427820847</v>
       </c>
       <c r="M6">
-        <v>9.778385110918684</v>
+        <v>13.42016408057592</v>
       </c>
       <c r="N6">
-        <v>6.617316581737803</v>
+        <v>5.905608914305954</v>
       </c>
       <c r="O6">
-        <v>9.945754252543848</v>
+        <v>9.640586794060075</v>
       </c>
       <c r="P6">
-        <v>15.25062765447476</v>
+        <v>6.80646630345749</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.759364121590021</v>
+      </c>
+      <c r="R6">
+        <v>14.84654206785547</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.31307259111455</v>
+        <v>11.77671903857183</v>
       </c>
       <c r="C7">
-        <v>5.995680641446725</v>
+        <v>6.023058195545408</v>
       </c>
       <c r="D7">
-        <v>3.924444004147191</v>
+        <v>4.07920916761862</v>
       </c>
       <c r="E7">
-        <v>6.978483783883045</v>
+        <v>6.880808724932684</v>
       </c>
       <c r="F7">
-        <v>27.92526462625852</v>
+        <v>26.70180853212088</v>
       </c>
       <c r="G7">
-        <v>35.31548476313768</v>
+        <v>33.53339706618928</v>
       </c>
       <c r="I7">
-        <v>4.714469480612362</v>
+        <v>4.387201773420111</v>
       </c>
       <c r="J7">
-        <v>12.47496233460997</v>
+        <v>11.88449349582066</v>
       </c>
       <c r="K7">
-        <v>20.1251769848015</v>
+        <v>18.99288556048695</v>
       </c>
       <c r="L7">
-        <v>6.025281744086549</v>
+        <v>14.77631142059397</v>
       </c>
       <c r="M7">
-        <v>9.956865829574236</v>
+        <v>13.39768775098554</v>
       </c>
       <c r="N7">
-        <v>6.628958405251622</v>
+        <v>5.8987496229247</v>
       </c>
       <c r="O7">
-        <v>10.02559026062113</v>
+        <v>9.815010694685448</v>
       </c>
       <c r="P7">
-        <v>15.19952686950857</v>
+        <v>6.820733996262154</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.839596146643983</v>
+      </c>
+      <c r="R7">
+        <v>14.79503047197322</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.31404872647024</v>
+        <v>12.73614467213964</v>
       </c>
       <c r="C8">
-        <v>6.491367885944327</v>
+        <v>6.604642355722995</v>
       </c>
       <c r="D8">
-        <v>4.05467178662069</v>
+        <v>4.231181903765652</v>
       </c>
       <c r="E8">
-        <v>6.977875492086088</v>
+        <v>6.879614875189674</v>
       </c>
       <c r="F8">
-        <v>28.2183784639457</v>
+        <v>26.89238268500001</v>
       </c>
       <c r="G8">
-        <v>35.80839960490778</v>
+        <v>33.93600791875373</v>
       </c>
       <c r="I8">
-        <v>4.45912676525667</v>
+        <v>4.166134580003888</v>
       </c>
       <c r="J8">
-        <v>12.45939089781377</v>
+        <v>11.82759997415318</v>
       </c>
       <c r="K8">
-        <v>20.11010112057837</v>
+        <v>18.91269864733831</v>
       </c>
       <c r="L8">
-        <v>5.994366867749647</v>
+        <v>14.63979189913499</v>
       </c>
       <c r="M8">
-        <v>10.7166189119346</v>
+        <v>13.35681657752578</v>
       </c>
       <c r="N8">
-        <v>6.683846376269844</v>
+        <v>5.870135525003629</v>
       </c>
       <c r="O8">
-        <v>10.37885128375801</v>
+        <v>10.56756912426646</v>
       </c>
       <c r="P8">
-        <v>14.98216011929989</v>
+        <v>6.88800474515983</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.19590765247381</v>
+      </c>
+      <c r="R8">
+        <v>14.57910883655332</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.11434867242104</v>
+        <v>14.46058977289648</v>
       </c>
       <c r="C9">
-        <v>7.363453697448993</v>
+        <v>7.65058903401856</v>
       </c>
       <c r="D9">
-        <v>4.305832740248587</v>
+        <v>4.508828151847625</v>
       </c>
       <c r="E9">
-        <v>6.990145965929803</v>
+        <v>6.885264125403783</v>
       </c>
       <c r="F9">
-        <v>28.91988761584239</v>
+        <v>27.43285449361323</v>
       </c>
       <c r="G9">
-        <v>36.95800030338781</v>
+        <v>34.69885092939005</v>
       </c>
       <c r="I9">
-        <v>3.984439010787618</v>
+        <v>3.751719340401564</v>
       </c>
       <c r="J9">
-        <v>12.47571835340713</v>
+        <v>11.87999097478364</v>
       </c>
       <c r="K9">
-        <v>20.1593545514667</v>
+        <v>18.84903890630594</v>
       </c>
       <c r="L9">
-        <v>5.93840500282651</v>
+        <v>14.42093349350122</v>
       </c>
       <c r="M9">
-        <v>12.16190806554807</v>
+        <v>13.46084977339351</v>
       </c>
       <c r="N9">
-        <v>6.810675639153992</v>
+        <v>5.81836876651044</v>
       </c>
       <c r="O9">
-        <v>11.06497842707994</v>
+        <v>12.10479522984426</v>
       </c>
       <c r="P9">
-        <v>14.5769663064977</v>
+        <v>7.041022905462501</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.88690407762877</v>
+      </c>
+      <c r="R9">
+        <v>14.18119044060567</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.30932408487262</v>
+        <v>15.57814579176788</v>
       </c>
       <c r="C10">
-        <v>7.968233346840351</v>
+        <v>8.326998285786951</v>
       </c>
       <c r="D10">
-        <v>4.491891517683854</v>
+        <v>4.737646140332321</v>
       </c>
       <c r="E10">
-        <v>7.005951664100094</v>
+        <v>6.904064178576955</v>
       </c>
       <c r="F10">
-        <v>29.47308116680716</v>
+        <v>27.7758056755956</v>
       </c>
       <c r="G10">
-        <v>37.84401379643736</v>
+        <v>35.66676295530201</v>
       </c>
       <c r="I10">
-        <v>3.663161798380973</v>
+        <v>3.477654532885111</v>
       </c>
       <c r="J10">
-        <v>12.50491032264025</v>
+        <v>11.70760974998478</v>
       </c>
       <c r="K10">
-        <v>20.21544900365733</v>
+        <v>18.76822031530031</v>
       </c>
       <c r="L10">
-        <v>5.898929316603814</v>
+        <v>14.21418801594794</v>
       </c>
       <c r="M10">
-        <v>13.24017616543351</v>
+        <v>13.58428338011912</v>
       </c>
       <c r="N10">
-        <v>6.921424586922287</v>
+        <v>5.781580796013662</v>
       </c>
       <c r="O10">
-        <v>11.55656443159294</v>
+        <v>13.12706954011572</v>
       </c>
       <c r="P10">
-        <v>14.28513307228872</v>
+        <v>7.169994668634396</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.37059844950524</v>
+      </c>
+      <c r="R10">
+        <v>13.88695658143123</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.80572796624718</v>
+        <v>16.00806791956676</v>
       </c>
       <c r="C11">
-        <v>8.255755434315986</v>
+        <v>8.576224326550367</v>
       </c>
       <c r="D11">
-        <v>4.581665610833204</v>
+        <v>4.887606778677845</v>
       </c>
       <c r="E11">
-        <v>7.013150240488403</v>
+        <v>6.927266500845766</v>
       </c>
       <c r="F11">
-        <v>29.69653388241521</v>
+        <v>27.75578033191501</v>
       </c>
       <c r="G11">
-        <v>38.19289813653099</v>
+        <v>36.67971275351763</v>
       </c>
       <c r="I11">
-        <v>3.536161784082076</v>
+        <v>3.379732528707586</v>
       </c>
       <c r="J11">
-        <v>12.51014455508425</v>
+        <v>11.2635387205093</v>
       </c>
       <c r="K11">
-        <v>20.21724826367373</v>
+        <v>18.6268225736406</v>
       </c>
       <c r="L11">
-        <v>5.88032170081844</v>
+        <v>14.03976883941661</v>
       </c>
       <c r="M11">
-        <v>13.70016230069188</v>
+        <v>13.57256396213072</v>
       </c>
       <c r="N11">
-        <v>6.980904501137377</v>
+        <v>5.76397702066126</v>
       </c>
       <c r="O11">
-        <v>11.7733445656567</v>
+        <v>13.51643002733801</v>
       </c>
       <c r="P11">
-        <v>14.14808540278175</v>
+        <v>7.235119402084091</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>11.56964013037428</v>
+      </c>
+      <c r="R11">
+        <v>13.73736899480922</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.00103253852052</v>
+        <v>16.17438173289557</v>
       </c>
       <c r="C12">
-        <v>8.351336606830358</v>
+        <v>8.648395728061557</v>
       </c>
       <c r="D12">
-        <v>4.612548288085174</v>
+        <v>4.946306876729923</v>
       </c>
       <c r="E12">
-        <v>7.016966546249126</v>
+        <v>6.939128129951119</v>
       </c>
       <c r="F12">
-        <v>29.80377978368092</v>
+        <v>27.75134071492581</v>
       </c>
       <c r="G12">
-        <v>38.36345689819196</v>
+        <v>37.18271697697802</v>
       </c>
       <c r="I12">
-        <v>3.48150183956777</v>
+        <v>3.335274177475463</v>
       </c>
       <c r="J12">
-        <v>12.51978832028195</v>
+        <v>11.06598123472796</v>
       </c>
       <c r="K12">
-        <v>20.23526102750159</v>
+        <v>18.57881603189463</v>
       </c>
       <c r="L12">
-        <v>5.873900142501536</v>
+        <v>13.97830604397282</v>
       </c>
       <c r="M12">
-        <v>13.87292118780227</v>
+        <v>13.57364572750984</v>
       </c>
       <c r="N12">
-        <v>7.000875110511208</v>
+        <v>5.757812548803603</v>
       </c>
       <c r="O12">
-        <v>11.85675944256709</v>
+        <v>13.65730334970236</v>
       </c>
       <c r="P12">
-        <v>14.09945588180635</v>
+        <v>7.25688371140403</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.64452615254701</v>
+      </c>
+      <c r="R12">
+        <v>13.6816877909642</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.96134144435768</v>
+        <v>16.14105872754227</v>
       </c>
       <c r="C13">
-        <v>8.328465859208404</v>
+        <v>8.630762939655146</v>
       </c>
       <c r="D13">
-        <v>4.605303975594376</v>
+        <v>4.932847852674772</v>
       </c>
       <c r="E13">
-        <v>7.016306068478011</v>
+        <v>6.936635196480919</v>
       </c>
       <c r="F13">
-        <v>29.78480795507723</v>
+        <v>27.75710331284321</v>
       </c>
       <c r="G13">
-        <v>38.33389897342848</v>
+        <v>37.07771218269387</v>
       </c>
       <c r="I13">
-        <v>3.49168493424109</v>
+        <v>3.342962826352643</v>
       </c>
       <c r="J13">
-        <v>12.519066462458</v>
+        <v>11.11109374500709</v>
       </c>
       <c r="K13">
-        <v>20.23460424753106</v>
+        <v>18.59260005427317</v>
       </c>
       <c r="L13">
-        <v>5.875393808012162</v>
+        <v>13.99405606067375</v>
       </c>
       <c r="M13">
-        <v>13.83633442356131</v>
+        <v>13.57606267778075</v>
       </c>
       <c r="N13">
-        <v>6.99594467996572</v>
+        <v>5.759231713155038</v>
       </c>
       <c r="O13">
-        <v>11.83919314525099</v>
+        <v>13.62779094236303</v>
       </c>
       <c r="P13">
-        <v>14.11053409859801</v>
+        <v>7.251593095000334</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.62887346805699</v>
+      </c>
+      <c r="R13">
+        <v>13.69414237788025</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.82281435753211</v>
+        <v>16.02282645762029</v>
       </c>
       <c r="C14">
-        <v>8.262641842169447</v>
+        <v>8.581275344774477</v>
       </c>
       <c r="D14">
-        <v>4.583953133469018</v>
+        <v>4.892082430919663</v>
       </c>
       <c r="E14">
-        <v>7.013532563608211</v>
+        <v>6.928266134214087</v>
       </c>
       <c r="F14">
-        <v>29.70711251741941</v>
+        <v>27.75748241949059</v>
       </c>
       <c r="G14">
-        <v>38.20998564426717</v>
+        <v>36.72242111350855</v>
       </c>
       <c r="I14">
-        <v>3.530986697925314</v>
+        <v>3.375268456886676</v>
       </c>
       <c r="J14">
-        <v>12.51151337744765</v>
+        <v>11.24844453695785</v>
       </c>
       <c r="K14">
-        <v>20.22009930270653</v>
+        <v>18.62435161901046</v>
       </c>
       <c r="L14">
-        <v>5.879840465070655</v>
+        <v>14.03579689052404</v>
       </c>
       <c r="M14">
-        <v>13.71464435511672</v>
+        <v>13.57378376517825</v>
       </c>
       <c r="N14">
-        <v>6.982278883758733</v>
+        <v>5.763508910602551</v>
       </c>
       <c r="O14">
-        <v>11.78037758069718</v>
+        <v>13.52838284161238</v>
       </c>
       <c r="P14">
-        <v>14.14434188900148</v>
+        <v>7.236652744058725</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>11.57600613537425</v>
+      </c>
+      <c r="R14">
+        <v>13.73299004914185</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.73306448468512</v>
+        <v>15.94510577766624</v>
       </c>
       <c r="C15">
-        <v>8.226838664865554</v>
+        <v>8.554771499637482</v>
       </c>
       <c r="D15">
-        <v>4.572051482543731</v>
+        <v>4.868941444662458</v>
       </c>
       <c r="E15">
-        <v>7.011525436144983</v>
+        <v>6.92311557459846</v>
       </c>
       <c r="F15">
-        <v>29.65142257818545</v>
+        <v>27.74745686764107</v>
       </c>
       <c r="G15">
-        <v>38.11995031946637</v>
+        <v>36.50179284949356</v>
       </c>
       <c r="I15">
-        <v>3.558270999438726</v>
+        <v>3.398892763843183</v>
       </c>
       <c r="J15">
-        <v>12.50424477472831</v>
+        <v>11.32582577626893</v>
       </c>
       <c r="K15">
-        <v>20.2049017985873</v>
+        <v>18.63656517976877</v>
       </c>
       <c r="L15">
-        <v>5.882347560570269</v>
+        <v>14.05604210484064</v>
       </c>
       <c r="M15">
-        <v>13.63871244998946</v>
+        <v>13.5669183012299</v>
       </c>
       <c r="N15">
-        <v>6.975174797812265</v>
+        <v>5.765948289563975</v>
       </c>
       <c r="O15">
-        <v>11.74353817002384</v>
+        <v>13.46547496894552</v>
       </c>
       <c r="P15">
-        <v>14.16386292318812</v>
+        <v>7.228700981591809</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>11.54258177506885</v>
+      </c>
+      <c r="R15">
+        <v>13.75578673698432</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.23858372563147</v>
+        <v>15.51182085505747</v>
       </c>
       <c r="C16">
-        <v>7.989570060500621</v>
+        <v>8.352706631098147</v>
       </c>
       <c r="D16">
-        <v>4.496166624658867</v>
+        <v>4.738605427332753</v>
       </c>
       <c r="E16">
-        <v>7.002655013955014</v>
+        <v>6.900106291854162</v>
       </c>
       <c r="F16">
-        <v>29.38821497334241</v>
+        <v>27.70672703102871</v>
       </c>
       <c r="G16">
-        <v>37.69920074866723</v>
+        <v>35.49258776981463</v>
       </c>
       <c r="I16">
-        <v>3.696376518360889</v>
+        <v>3.513483228635208</v>
       </c>
       <c r="J16">
-        <v>12.48152158435865</v>
+        <v>11.70984064989565</v>
       </c>
       <c r="K16">
-        <v>20.16096958878321</v>
+        <v>18.72540888406576</v>
       </c>
       <c r="L16">
-        <v>5.898249723807012</v>
+        <v>14.1862090344742</v>
       </c>
       <c r="M16">
-        <v>13.20178930407915</v>
+        <v>13.54534672670096</v>
       </c>
       <c r="N16">
-        <v>6.927801540729728</v>
+        <v>5.781152340446257</v>
       </c>
       <c r="O16">
-        <v>11.53603862207364</v>
+        <v>13.09284362408317</v>
       </c>
       <c r="P16">
-        <v>14.28380734799073</v>
+        <v>7.175831778220461</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>11.35104620160121</v>
+      </c>
+      <c r="R16">
+        <v>13.8890669084536</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.92829718298413</v>
+        <v>15.23257335993346</v>
       </c>
       <c r="C17">
-        <v>7.841688571805576</v>
+        <v>8.211739949126541</v>
       </c>
       <c r="D17">
-        <v>4.449475805698749</v>
+        <v>4.667152345762386</v>
       </c>
       <c r="E17">
-        <v>6.997640118556306</v>
+        <v>6.889687715167761</v>
       </c>
       <c r="F17">
-        <v>29.22974806936577</v>
+        <v>27.65256763277858</v>
       </c>
       <c r="G17">
-        <v>37.44484777413791</v>
+        <v>35.01463277830924</v>
       </c>
       <c r="I17">
-        <v>3.782395827394515</v>
+        <v>3.58606702332346</v>
       </c>
       <c r="J17">
-        <v>12.46895047994968</v>
+        <v>11.87415190277352</v>
       </c>
       <c r="K17">
-        <v>20.13600616292142</v>
+        <v>18.7637295676403</v>
       </c>
       <c r="L17">
-        <v>5.908111722036464</v>
+        <v>14.25377342318347</v>
       </c>
       <c r="M17">
-        <v>12.92702910647323</v>
+        <v>13.52261736103324</v>
       </c>
       <c r="N17">
-        <v>6.89958926683232</v>
+        <v>5.790512836980636</v>
       </c>
       <c r="O17">
-        <v>11.40784653486567</v>
+        <v>12.84837173426983</v>
       </c>
       <c r="P17">
-        <v>14.35776745122823</v>
+        <v>7.1436497946133</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>11.22956926728524</v>
+      </c>
+      <c r="R17">
+        <v>13.96849369830777</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.75904618194655</v>
+        <v>15.07861793672067</v>
       </c>
       <c r="C18">
-        <v>7.743187745563959</v>
+        <v>8.110725084846351</v>
       </c>
       <c r="D18">
-        <v>4.419444340062076</v>
+        <v>4.625993987023204</v>
       </c>
       <c r="E18">
-        <v>6.995779461448665</v>
+        <v>6.885788361318045</v>
       </c>
       <c r="F18">
-        <v>29.16123888291843</v>
+        <v>27.63195947505806</v>
       </c>
       <c r="G18">
-        <v>37.33736606986105</v>
+        <v>34.8251823918633</v>
       </c>
       <c r="I18">
-        <v>3.824238453666713</v>
+        <v>3.619050518365307</v>
       </c>
       <c r="J18">
-        <v>12.46924292759012</v>
+        <v>11.94808604904752</v>
       </c>
       <c r="K18">
-        <v>20.13890235540794</v>
+        <v>18.79558232710326</v>
       </c>
       <c r="L18">
-        <v>5.914405483837195</v>
+        <v>14.30010357652168</v>
       </c>
       <c r="M18">
-        <v>12.76893861734135</v>
+        <v>13.51809018095647</v>
       </c>
       <c r="N18">
-        <v>6.880557174750625</v>
+        <v>5.796390550904375</v>
       </c>
       <c r="O18">
-        <v>11.33573266859967</v>
+        <v>12.70422799427817</v>
       </c>
       <c r="P18">
-        <v>14.40358780523992</v>
+        <v>7.122172310449431</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>11.16020889383137</v>
+      </c>
+      <c r="R18">
+        <v>14.01568100789064</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.69225793123233</v>
+        <v>15.01672686258224</v>
       </c>
       <c r="C19">
-        <v>7.719372560182469</v>
+        <v>8.085872640533434</v>
       </c>
       <c r="D19">
-        <v>4.411683585816951</v>
+        <v>4.614968656509117</v>
       </c>
       <c r="E19">
-        <v>6.99450692748746</v>
+        <v>6.884040553745158</v>
       </c>
       <c r="F19">
-        <v>29.12163600754235</v>
+        <v>27.60717397147459</v>
       </c>
       <c r="G19">
-        <v>37.27237245771106</v>
+        <v>34.74130823431354</v>
       </c>
       <c r="I19">
-        <v>3.844688686812656</v>
+        <v>3.637725639681379</v>
       </c>
       <c r="J19">
-        <v>12.46400526787413</v>
+        <v>11.96313737380601</v>
       </c>
       <c r="K19">
-        <v>20.12725046735949</v>
+        <v>18.7934673381181</v>
       </c>
       <c r="L19">
-        <v>5.916094905007096</v>
+        <v>14.30578189241765</v>
       </c>
       <c r="M19">
-        <v>12.71311602069071</v>
+        <v>13.50707020507698</v>
       </c>
       <c r="N19">
-        <v>6.876569777747397</v>
+        <v>5.798006554208654</v>
       </c>
       <c r="O19">
-        <v>11.30978072743397</v>
+        <v>12.65260402497593</v>
       </c>
       <c r="P19">
-        <v>14.41670864470214</v>
+        <v>7.117297819791085</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.13501569086104</v>
+      </c>
+      <c r="R19">
+        <v>14.02968503102016</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.96250322043469</v>
+        <v>15.26370932091798</v>
       </c>
       <c r="C20">
-        <v>7.85654290342176</v>
+        <v>8.226349575517085</v>
       </c>
       <c r="D20">
-        <v>4.454206468351038</v>
+        <v>4.674199109525387</v>
       </c>
       <c r="E20">
-        <v>6.998225874032848</v>
+        <v>6.890728652744251</v>
       </c>
       <c r="F20">
-        <v>29.24818659811263</v>
+        <v>27.66103950565623</v>
       </c>
       <c r="G20">
-        <v>37.47470453969936</v>
+        <v>35.06319536440623</v>
       </c>
       <c r="I20">
-        <v>3.77254385247334</v>
+        <v>3.57748415099511</v>
       </c>
       <c r="J20">
-        <v>12.47078824920341</v>
+        <v>11.86000556416601</v>
       </c>
       <c r="K20">
-        <v>20.13988509114963</v>
+        <v>18.76145653800163</v>
       </c>
       <c r="L20">
-        <v>5.907103236458319</v>
+        <v>14.24797860902138</v>
       </c>
       <c r="M20">
-        <v>12.95672284412593</v>
+        <v>13.52628503607677</v>
       </c>
       <c r="N20">
-        <v>6.902316260838556</v>
+        <v>5.789553470899998</v>
       </c>
       <c r="O20">
-        <v>11.42167573132836</v>
+        <v>12.87518570308965</v>
       </c>
       <c r="P20">
-        <v>14.35012431158113</v>
+        <v>7.146823097923876</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.24279655674189</v>
+      </c>
+      <c r="R20">
+        <v>13.96031061226867</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.85124138166003</v>
+        <v>16.03436033119174</v>
       </c>
       <c r="C21">
-        <v>8.295212790454661</v>
+        <v>8.585323312297188</v>
       </c>
       <c r="D21">
-        <v>4.593586965782889</v>
+        <v>4.921961376947252</v>
       </c>
       <c r="E21">
-        <v>7.013376106653199</v>
+        <v>6.934968376514774</v>
       </c>
       <c r="F21">
-        <v>29.70633085893834</v>
+        <v>27.68268207235857</v>
       </c>
       <c r="G21">
-        <v>38.20554749939069</v>
+        <v>37.00683627792561</v>
       </c>
       <c r="I21">
-        <v>3.528376357700072</v>
+        <v>3.378123672877661</v>
       </c>
       <c r="J21">
-        <v>12.50592270052895</v>
+        <v>11.08259094380407</v>
       </c>
       <c r="K21">
-        <v>20.20599601767631</v>
+        <v>18.56965711273541</v>
       </c>
       <c r="L21">
-        <v>5.877897951069082</v>
+        <v>13.99014954775043</v>
       </c>
       <c r="M21">
-        <v>13.7479350420545</v>
+        <v>13.53882542880094</v>
       </c>
       <c r="N21">
-        <v>6.989692523016896</v>
+        <v>5.761601639179109</v>
       </c>
       <c r="O21">
-        <v>11.79557222734069</v>
+        <v>13.53890041001289</v>
       </c>
       <c r="P21">
-        <v>14.13097215109574</v>
+        <v>7.243485411482419</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.58474430905649</v>
+      </c>
+      <c r="R21">
+        <v>13.71466200230004</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.42495806873978</v>
+        <v>16.52799564014403</v>
       </c>
       <c r="C22">
-        <v>8.557612528925333</v>
+        <v>8.789227867614024</v>
       </c>
       <c r="D22">
-        <v>4.67986408884689</v>
+        <v>5.084060762768039</v>
       </c>
       <c r="E22">
-        <v>7.025911026694891</v>
+        <v>6.969762005163341</v>
       </c>
       <c r="F22">
-        <v>30.04545399368062</v>
+        <v>27.71233842047664</v>
       </c>
       <c r="G22">
-        <v>38.74714254794129</v>
+        <v>38.45253876025323</v>
       </c>
       <c r="I22">
-        <v>3.361505671116332</v>
+        <v>3.238230751659958</v>
       </c>
       <c r="J22">
-        <v>12.54336593706224</v>
+        <v>10.58084416204296</v>
       </c>
       <c r="K22">
-        <v>20.27914836163976</v>
+        <v>18.45728130303187</v>
       </c>
       <c r="L22">
-        <v>5.859958229388116</v>
+        <v>13.83242852216508</v>
       </c>
       <c r="M22">
-        <v>14.24643914242696</v>
+        <v>13.56556340240153</v>
       </c>
       <c r="N22">
-        <v>7.04524039547539</v>
+        <v>5.744403182236709</v>
       </c>
       <c r="O22">
-        <v>12.03940347887866</v>
+        <v>13.95175166211515</v>
       </c>
       <c r="P22">
-        <v>13.99326678886438</v>
+        <v>7.304432458604672</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.8050676109843</v>
+      </c>
+      <c r="R22">
+        <v>13.5573533975542</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.13562527552397</v>
+        <v>16.28908347735152</v>
       </c>
       <c r="C23">
-        <v>8.402493583479155</v>
+        <v>8.681641014806424</v>
       </c>
       <c r="D23">
-        <v>4.629851249689239</v>
+        <v>4.98299716355526</v>
       </c>
       <c r="E23">
-        <v>7.02025280595607</v>
+        <v>6.94819181347467</v>
       </c>
       <c r="F23">
-        <v>29.89186972485963</v>
+        <v>27.76120765459046</v>
       </c>
       <c r="G23">
-        <v>38.50594429846823</v>
+        <v>37.56313534272314</v>
       </c>
       <c r="I23">
-        <v>3.439677773372154</v>
+        <v>3.29896944591428</v>
       </c>
       <c r="J23">
-        <v>12.53233008434101</v>
+        <v>10.93465595179034</v>
       </c>
       <c r="K23">
-        <v>20.26156292667122</v>
+        <v>18.55823146634578</v>
       </c>
       <c r="L23">
-        <v>5.870265604184959</v>
+        <v>13.94633573897562</v>
       </c>
       <c r="M23">
-        <v>13.98541547281735</v>
+        <v>13.58291692210117</v>
       </c>
       <c r="N23">
-        <v>7.011240628534551</v>
+        <v>5.754251711028877</v>
       </c>
       <c r="O23">
-        <v>11.91209463291373</v>
+        <v>13.74775824496414</v>
       </c>
       <c r="P23">
-        <v>14.07079892791594</v>
+        <v>7.268328786980371</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.69382254960836</v>
+      </c>
+      <c r="R23">
+        <v>13.64714294958717</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.97166189147629</v>
+        <v>15.27390338340424</v>
       </c>
       <c r="C24">
-        <v>7.823511032641445</v>
+        <v>8.191397192240046</v>
       </c>
       <c r="D24">
-        <v>4.445483930678659</v>
+        <v>4.664470825183206</v>
       </c>
       <c r="E24">
-        <v>6.999795412295774</v>
+        <v>6.892004197601049</v>
       </c>
       <c r="F24">
-        <v>29.2852682544316</v>
+        <v>27.70119494653021</v>
       </c>
       <c r="G24">
-        <v>37.54009356955887</v>
+        <v>35.11765358390011</v>
       </c>
       <c r="I24">
-        <v>3.76048527653169</v>
+        <v>3.561822266335432</v>
       </c>
       <c r="J24">
-        <v>12.48481802697348</v>
+        <v>11.88066586367372</v>
       </c>
       <c r="K24">
-        <v>20.17310893764215</v>
+        <v>18.79521392293562</v>
       </c>
       <c r="L24">
-        <v>5.908786125628796</v>
+        <v>14.27571534220162</v>
       </c>
       <c r="M24">
-        <v>12.94838971793945</v>
+        <v>13.54941150518617</v>
       </c>
       <c r="N24">
-        <v>6.894509641939374</v>
+        <v>5.79101110027727</v>
       </c>
       <c r="O24">
-        <v>11.41948305017632</v>
+        <v>12.86799655618525</v>
       </c>
       <c r="P24">
-        <v>14.3602087847231</v>
+        <v>7.138890987923306</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.24084670006033</v>
+      </c>
+      <c r="R24">
+        <v>13.96895930350938</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.62258583249661</v>
+        <v>13.99525783058044</v>
       </c>
       <c r="C25">
-        <v>7.162602882645998</v>
+        <v>7.418920357356476</v>
       </c>
       <c r="D25">
-        <v>4.244492462827389</v>
+        <v>4.434265228956704</v>
       </c>
       <c r="E25">
-        <v>6.983770151379249</v>
+        <v>6.878852590733193</v>
       </c>
       <c r="F25">
-        <v>28.67625186766544</v>
+        <v>27.25664594892066</v>
       </c>
       <c r="G25">
-        <v>36.55727103432538</v>
+        <v>34.31659153496862</v>
       </c>
       <c r="I25">
-        <v>4.123159139116589</v>
+        <v>3.875967979010257</v>
       </c>
       <c r="J25">
-        <v>12.45312241193169</v>
+        <v>11.90390950036677</v>
       </c>
       <c r="K25">
-        <v>20.10674569748473</v>
+        <v>18.84185877421726</v>
       </c>
       <c r="L25">
-        <v>5.951958184197556</v>
+        <v>14.46392307135186</v>
       </c>
       <c r="M25">
-        <v>11.7353937759824</v>
+        <v>13.40214995710182</v>
       </c>
       <c r="N25">
-        <v>6.780100888366601</v>
+        <v>5.831079869963691</v>
       </c>
       <c r="O25">
-        <v>10.87698976488341</v>
+        <v>11.69679144725754</v>
       </c>
       <c r="P25">
-        <v>14.67848274884206</v>
+        <v>7.003516481973272</v>
       </c>
       <c r="Q25">
+        <v>10.70021581305954</v>
+      </c>
+      <c r="R25">
+        <v>14.28436091620581</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
